--- a/data/pca/factorExposure/factorExposure_2015-11-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-11-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01715361258739924</v>
+        <v>-0.01405761868443821</v>
       </c>
       <c r="C2">
-        <v>0.03057089815046708</v>
+        <v>0.0359409189774474</v>
       </c>
       <c r="D2">
-        <v>-0.09369204069473905</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1272069373506322</v>
+      </c>
+      <c r="E2">
+        <v>-0.0715409518341678</v>
+      </c>
+      <c r="F2">
+        <v>-0.02333416167457056</v>
+      </c>
+      <c r="G2">
+        <v>-0.08166770642078894</v>
+      </c>
+      <c r="H2">
+        <v>0.07611970173605172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01727707427587976</v>
+        <v>-0.009576560537673841</v>
       </c>
       <c r="C3">
-        <v>0.05800046977682693</v>
+        <v>0.04255460663212724</v>
       </c>
       <c r="D3">
-        <v>-0.09741165574481629</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.05843239295270373</v>
+      </c>
+      <c r="E3">
+        <v>-0.03383806394184881</v>
+      </c>
+      <c r="F3">
+        <v>-0.04829768797160509</v>
+      </c>
+      <c r="G3">
+        <v>-0.09594683830212136</v>
+      </c>
+      <c r="H3">
+        <v>0.008834423134935643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05618722367954822</v>
+        <v>-0.05369867232002506</v>
       </c>
       <c r="C4">
-        <v>0.04256073292962245</v>
+        <v>0.06588450170105217</v>
       </c>
       <c r="D4">
-        <v>-0.1183989218009718</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1415366776904845</v>
+      </c>
+      <c r="E4">
+        <v>-0.05568284828463475</v>
+      </c>
+      <c r="F4">
+        <v>-0.02125545811690241</v>
+      </c>
+      <c r="G4">
+        <v>0.03858760099637457</v>
+      </c>
+      <c r="H4">
+        <v>-0.01975987729456064</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04240768437258394</v>
+        <v>-0.04000239001374153</v>
       </c>
       <c r="C6">
-        <v>0.0139965393209746</v>
+        <v>0.0281826495438418</v>
       </c>
       <c r="D6">
-        <v>-0.1360296869074219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1384990994959917</v>
+      </c>
+      <c r="E6">
+        <v>-0.02999426853992876</v>
+      </c>
+      <c r="F6">
+        <v>-0.01522399480069599</v>
+      </c>
+      <c r="G6">
+        <v>-0.0094484005546564</v>
+      </c>
+      <c r="H6">
+        <v>0.01112125636785918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02021472140931913</v>
+        <v>-0.01385912861479904</v>
       </c>
       <c r="C7">
-        <v>0.01847710530770785</v>
+        <v>0.03197083238776374</v>
       </c>
       <c r="D7">
-        <v>-0.09847031394962064</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09586169116356515</v>
+      </c>
+      <c r="E7">
+        <v>-0.03109842795301373</v>
+      </c>
+      <c r="F7">
+        <v>-0.02293642040833642</v>
+      </c>
+      <c r="G7">
+        <v>-0.01303494385167558</v>
+      </c>
+      <c r="H7">
+        <v>0.1119440242808288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01085526316128763</v>
+        <v>-0.007113268763152546</v>
       </c>
       <c r="C8">
-        <v>0.02779287042478765</v>
+        <v>0.03774538237515225</v>
       </c>
       <c r="D8">
-        <v>-0.05903535086752859</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07723150425812439</v>
+      </c>
+      <c r="E8">
+        <v>-0.03548273257838788</v>
+      </c>
+      <c r="F8">
+        <v>-0.04317211183587803</v>
+      </c>
+      <c r="G8">
+        <v>-0.02134313952956746</v>
+      </c>
+      <c r="H8">
+        <v>0.03678395186412455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04582574828233518</v>
+        <v>-0.04247894678716833</v>
       </c>
       <c r="C9">
-        <v>0.04260071642664601</v>
+        <v>0.06205130259138759</v>
       </c>
       <c r="D9">
-        <v>-0.1084797696837468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1205214136566939</v>
+      </c>
+      <c r="E9">
+        <v>-0.04031838020467774</v>
+      </c>
+      <c r="F9">
+        <v>-0.002652381565696327</v>
+      </c>
+      <c r="G9">
+        <v>0.02557737247925516</v>
+      </c>
+      <c r="H9">
+        <v>0.008429611171759688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.09513458158150019</v>
+        <v>-0.1411789513746497</v>
       </c>
       <c r="C10">
-        <v>-0.1905000069601681</v>
+        <v>-0.1896908957340938</v>
       </c>
       <c r="D10">
-        <v>0.004742800118776857</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.004499028402042758</v>
+      </c>
+      <c r="E10">
+        <v>-0.04578904602227095</v>
+      </c>
+      <c r="F10">
+        <v>-0.02439685329552069</v>
+      </c>
+      <c r="G10">
+        <v>0.029272273868908</v>
+      </c>
+      <c r="H10">
+        <v>-0.001333134048630843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03386480657774871</v>
+        <v>-0.02863630483643394</v>
       </c>
       <c r="C11">
-        <v>0.03719632913970245</v>
+        <v>0.04490498034035528</v>
       </c>
       <c r="D11">
-        <v>-0.05684298978819606</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05803473950839196</v>
+      </c>
+      <c r="E11">
+        <v>0.003748352199860144</v>
+      </c>
+      <c r="F11">
+        <v>-0.0003647473478755064</v>
+      </c>
+      <c r="G11">
+        <v>-0.007770895936843145</v>
+      </c>
+      <c r="H11">
+        <v>0.04704797513067854</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04055494719291759</v>
+        <v>-0.0338614240420428</v>
       </c>
       <c r="C12">
-        <v>0.03818754232064551</v>
+        <v>0.04635386310983996</v>
       </c>
       <c r="D12">
-        <v>-0.06062808830133279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05809512571273928</v>
+      </c>
+      <c r="E12">
+        <v>-0.00264271494842032</v>
+      </c>
+      <c r="F12">
+        <v>0.007924022860402594</v>
+      </c>
+      <c r="G12">
+        <v>-0.009782642791615167</v>
+      </c>
+      <c r="H12">
+        <v>0.06020008928606464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01794215499037449</v>
+        <v>-0.01761084788942213</v>
       </c>
       <c r="C13">
-        <v>0.03147456066864767</v>
+        <v>0.03904321386505455</v>
       </c>
       <c r="D13">
-        <v>-0.1250095021915091</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1480677702508491</v>
+      </c>
+      <c r="E13">
+        <v>-0.04750705027754724</v>
+      </c>
+      <c r="F13">
+        <v>-0.03837954721741294</v>
+      </c>
+      <c r="G13">
+        <v>-0.02144128106948278</v>
+      </c>
+      <c r="H13">
+        <v>0.09625621769634603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.00892497850348801</v>
+        <v>-0.008458000440901415</v>
       </c>
       <c r="C14">
-        <v>0.01442249806453668</v>
+        <v>0.02465576963411249</v>
       </c>
       <c r="D14">
-        <v>-0.08232934668317701</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09239527475094339</v>
+      </c>
+      <c r="E14">
+        <v>-0.03939561464058457</v>
+      </c>
+      <c r="F14">
+        <v>0.002553686725827755</v>
+      </c>
+      <c r="G14">
+        <v>-0.02656179293399778</v>
+      </c>
+      <c r="H14">
+        <v>0.09572957939707304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002558857879987508</v>
+        <v>-0.001172845019629052</v>
       </c>
       <c r="C15">
-        <v>0.002730455609134461</v>
+        <v>0.01172374920193667</v>
       </c>
       <c r="D15">
-        <v>-0.003174284390010028</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03455824923356352</v>
+      </c>
+      <c r="E15">
+        <v>-0.008045215650011232</v>
+      </c>
+      <c r="F15">
+        <v>0.001875775576835245</v>
+      </c>
+      <c r="G15">
+        <v>-0.01031905418449196</v>
+      </c>
+      <c r="H15">
+        <v>0.006521639050835548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03403145046659291</v>
+        <v>-0.029472900087303</v>
       </c>
       <c r="C16">
-        <v>0.03982074019992651</v>
+        <v>0.0448839588728371</v>
       </c>
       <c r="D16">
-        <v>-0.06687339273437909</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06409801687797193</v>
+      </c>
+      <c r="E16">
+        <v>-0.008627203757152011</v>
+      </c>
+      <c r="F16">
+        <v>0.008496375552604286</v>
+      </c>
+      <c r="G16">
+        <v>-0.008598337772059322</v>
+      </c>
+      <c r="H16">
+        <v>0.05849700730773662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.00993431351130491</v>
+        <v>-0.006621816935448134</v>
       </c>
       <c r="C19">
-        <v>0.02644065040653203</v>
+        <v>0.02239079438666672</v>
       </c>
       <c r="D19">
-        <v>-0.1558784390609782</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1198610066132212</v>
+      </c>
+      <c r="E19">
+        <v>-0.0629038179522808</v>
+      </c>
+      <c r="F19">
+        <v>0.003009684577381918</v>
+      </c>
+      <c r="G19">
+        <v>-0.03138991407474703</v>
+      </c>
+      <c r="H19">
+        <v>0.06197845969287608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01658855356883756</v>
+        <v>-0.01545464583962472</v>
       </c>
       <c r="C20">
-        <v>0.0261899621776808</v>
+        <v>0.03388722486080537</v>
       </c>
       <c r="D20">
-        <v>-0.08505334017958653</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1008420154336856</v>
+      </c>
+      <c r="E20">
+        <v>-0.05287178364427886</v>
+      </c>
+      <c r="F20">
+        <v>0.003041887776855179</v>
+      </c>
+      <c r="G20">
+        <v>-0.009271439629081068</v>
+      </c>
+      <c r="H20">
+        <v>0.05545741251553157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.0132773347813354</v>
+        <v>-0.0127337031238863</v>
       </c>
       <c r="C21">
-        <v>0.03143866689154896</v>
+        <v>0.0400643008460233</v>
       </c>
       <c r="D21">
-        <v>-0.1252867714777918</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1417803538392383</v>
+      </c>
+      <c r="E21">
+        <v>-0.08852125929488504</v>
+      </c>
+      <c r="F21">
+        <v>-0.004780929416421234</v>
+      </c>
+      <c r="G21">
+        <v>0.007557402938423834</v>
+      </c>
+      <c r="H21">
+        <v>0.1204877393388805</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.007204045775470951</v>
+        <v>-0.005828229727393349</v>
       </c>
       <c r="C22">
-        <v>0.02792753412677715</v>
+        <v>0.04163620277908007</v>
       </c>
       <c r="D22">
-        <v>-0.09622414635640522</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1512280854701543</v>
+      </c>
+      <c r="E22">
+        <v>-0.03069809816011958</v>
+      </c>
+      <c r="F22">
+        <v>-0.08792869187433132</v>
+      </c>
+      <c r="G22">
+        <v>-0.06713982137012171</v>
+      </c>
+      <c r="H22">
+        <v>-0.08329368325613684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.007327591367748715</v>
+        <v>-0.005940453839482249</v>
       </c>
       <c r="C23">
-        <v>0.02785517018214107</v>
+        <v>0.04208201923860566</v>
       </c>
       <c r="D23">
-        <v>-0.09549814237941237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.150636069065252</v>
+      </c>
+      <c r="E23">
+        <v>-0.03098715793475607</v>
+      </c>
+      <c r="F23">
+        <v>-0.08791115116576574</v>
+      </c>
+      <c r="G23">
+        <v>-0.06621514614033662</v>
+      </c>
+      <c r="H23">
+        <v>-0.0833098303145292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03727964946022182</v>
+        <v>-0.0309708670565764</v>
       </c>
       <c r="C24">
-        <v>0.04829271225619113</v>
+        <v>0.05625838408686069</v>
       </c>
       <c r="D24">
-        <v>-0.06533494223533319</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06605758349142164</v>
+      </c>
+      <c r="E24">
+        <v>-0.01397943030949846</v>
+      </c>
+      <c r="F24">
+        <v>0.00545658589999129</v>
+      </c>
+      <c r="G24">
+        <v>-0.003201418270102616</v>
+      </c>
+      <c r="H24">
+        <v>0.07045100859486575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04097017427021346</v>
+        <v>-0.03533571160932519</v>
       </c>
       <c r="C25">
-        <v>0.04726196242059637</v>
+        <v>0.05374974338467317</v>
       </c>
       <c r="D25">
-        <v>-0.06530256033222817</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06330978306100847</v>
+      </c>
+      <c r="E25">
+        <v>-0.0153104984133934</v>
+      </c>
+      <c r="F25">
+        <v>0.0003323981552412676</v>
+      </c>
+      <c r="G25">
+        <v>-0.002878872322257149</v>
+      </c>
+      <c r="H25">
+        <v>0.05553838860588674</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02026322989372393</v>
+        <v>-0.01883340200914119</v>
       </c>
       <c r="C26">
-        <v>0.007429215252071852</v>
+        <v>0.01830014990963589</v>
       </c>
       <c r="D26">
-        <v>-0.05256118127398582</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06463714096239476</v>
+      </c>
+      <c r="E26">
+        <v>-0.02741756312855319</v>
+      </c>
+      <c r="F26">
+        <v>-0.004664271233707186</v>
+      </c>
+      <c r="G26">
+        <v>-0.01424247967903496</v>
+      </c>
+      <c r="H26">
+        <v>0.06075175195444319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1428979544388781</v>
+        <v>-0.2003721559264366</v>
       </c>
       <c r="C28">
-        <v>-0.2709925417972644</v>
+        <v>-0.2532790587435676</v>
       </c>
       <c r="D28">
-        <v>0.03945336802481897</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01293740869550087</v>
+      </c>
+      <c r="E28">
+        <v>-0.07628034003176395</v>
+      </c>
+      <c r="F28">
+        <v>-0.005120464451925142</v>
+      </c>
+      <c r="G28">
+        <v>0.05745138686229667</v>
+      </c>
+      <c r="H28">
+        <v>0.01919991400556188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.005732803898715897</v>
+        <v>-0.006003629384704978</v>
       </c>
       <c r="C29">
-        <v>0.01665450990162997</v>
+        <v>0.02314385255999687</v>
       </c>
       <c r="D29">
-        <v>-0.06777509688887248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.08814661978924362</v>
+      </c>
+      <c r="E29">
+        <v>-0.03574192707766553</v>
+      </c>
+      <c r="F29">
+        <v>-0.01233601598817862</v>
+      </c>
+      <c r="G29">
+        <v>-0.008812805306234826</v>
+      </c>
+      <c r="H29">
+        <v>0.1024421659740572</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03787631912549331</v>
+        <v>-0.04140026343774745</v>
       </c>
       <c r="C30">
-        <v>0.03486654891970669</v>
+        <v>0.06078046134447778</v>
       </c>
       <c r="D30">
-        <v>-0.1684274618438907</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1796307109045486</v>
+      </c>
+      <c r="E30">
+        <v>-0.0185834908880166</v>
+      </c>
+      <c r="F30">
+        <v>-0.01012258703878988</v>
+      </c>
+      <c r="G30">
+        <v>-0.0232996470893752</v>
+      </c>
+      <c r="H30">
+        <v>-0.004321360637167814</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06891535400984702</v>
+        <v>-0.05524560839437964</v>
       </c>
       <c r="C31">
-        <v>0.04857495315635806</v>
+        <v>0.07399036950186558</v>
       </c>
       <c r="D31">
-        <v>-0.06413988347188491</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05246039856442374</v>
+      </c>
+      <c r="E31">
+        <v>-0.0321728315929762</v>
+      </c>
+      <c r="F31">
+        <v>-0.03164662991027473</v>
+      </c>
+      <c r="G31">
+        <v>0.01174324918622452</v>
+      </c>
+      <c r="H31">
+        <v>0.04809427145650063</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.004699583816729453</v>
+        <v>-0.01115301707724</v>
       </c>
       <c r="C32">
-        <v>0.01999779938914985</v>
+        <v>0.01846890037402781</v>
       </c>
       <c r="D32">
-        <v>-0.06215010226469622</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1081212926578829</v>
+      </c>
+      <c r="E32">
+        <v>-0.09216419444754091</v>
+      </c>
+      <c r="F32">
+        <v>-0.01037514899860134</v>
+      </c>
+      <c r="G32">
+        <v>0.00832653203706411</v>
+      </c>
+      <c r="H32">
+        <v>0.09705887158341156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02482759640166576</v>
+        <v>-0.02303866746036204</v>
       </c>
       <c r="C33">
-        <v>0.0299251683081535</v>
+        <v>0.0438699090522312</v>
       </c>
       <c r="D33">
-        <v>-0.1306593652978666</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1331429031173939</v>
+      </c>
+      <c r="E33">
+        <v>-0.04254234004334554</v>
+      </c>
+      <c r="F33">
+        <v>-0.01689285256431559</v>
+      </c>
+      <c r="G33">
+        <v>-0.01303422656267237</v>
+      </c>
+      <c r="H33">
+        <v>0.06360976759384773</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03553850333001318</v>
+        <v>-0.02733941014033468</v>
       </c>
       <c r="C34">
-        <v>0.0603225776986666</v>
+        <v>0.06122350909499442</v>
       </c>
       <c r="D34">
-        <v>-0.06797847117627166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05585813148219251</v>
+      </c>
+      <c r="E34">
+        <v>0.002270390910993375</v>
+      </c>
+      <c r="F34">
+        <v>0.01018729359051469</v>
+      </c>
+      <c r="G34">
+        <v>-0.0129013930132316</v>
+      </c>
+      <c r="H34">
+        <v>0.07561734513350225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0007628919691991974</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0009750852415946124</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.005492776736933346</v>
+      </c>
+      <c r="E35">
+        <v>-0.001420868749094697</v>
+      </c>
+      <c r="F35">
+        <v>-6.42762412061685e-05</v>
+      </c>
+      <c r="G35">
+        <v>-0.001972125741810748</v>
+      </c>
+      <c r="H35">
+        <v>0.001732040232840631</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02147139609626566</v>
+        <v>-0.01980639277122569</v>
       </c>
       <c r="C36">
-        <v>0.003392570375718916</v>
+        <v>0.01459352263319095</v>
       </c>
       <c r="D36">
-        <v>-0.06915013945469445</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07691519054298322</v>
+      </c>
+      <c r="E36">
+        <v>-0.03385897543661108</v>
+      </c>
+      <c r="F36">
+        <v>-0.00264217349505853</v>
+      </c>
+      <c r="G36">
+        <v>0.0001694441226363926</v>
+      </c>
+      <c r="H36">
+        <v>0.05478410211147158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02105423850538717</v>
+        <v>-0.02069755555321937</v>
       </c>
       <c r="C38">
-        <v>0.01397941139574321</v>
+        <v>0.02031890696839441</v>
       </c>
       <c r="D38">
-        <v>-0.05377663159860632</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0606154175525275</v>
+      </c>
+      <c r="E38">
+        <v>-0.0363433906252713</v>
+      </c>
+      <c r="F38">
+        <v>0.008472660029163298</v>
+      </c>
+      <c r="G38">
+        <v>-0.04379905460212864</v>
+      </c>
+      <c r="H38">
+        <v>0.03279887877141505</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03960686476864815</v>
+        <v>-0.03533925638585151</v>
       </c>
       <c r="C39">
-        <v>0.04892986268671824</v>
+        <v>0.06688020766703515</v>
       </c>
       <c r="D39">
-        <v>-0.08898498399997556</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1038218117280516</v>
+      </c>
+      <c r="E39">
+        <v>-0.008083807516703482</v>
+      </c>
+      <c r="F39">
+        <v>0.02707231422610533</v>
+      </c>
+      <c r="G39">
+        <v>-0.01388835558972402</v>
+      </c>
+      <c r="H39">
+        <v>0.08507454458359481</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01913263078911013</v>
+        <v>-0.01299604063514766</v>
       </c>
       <c r="C40">
-        <v>0.04666232500961527</v>
+        <v>0.04155187019615508</v>
       </c>
       <c r="D40">
-        <v>-0.07162501731924961</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08074424338467055</v>
+      </c>
+      <c r="E40">
+        <v>-0.06313204901381191</v>
+      </c>
+      <c r="F40">
+        <v>-0.07117964686980019</v>
+      </c>
+      <c r="G40">
+        <v>-0.08606362104496322</v>
+      </c>
+      <c r="H40">
+        <v>0.1487624059072495</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02512022585864295</v>
+        <v>-0.02395823757796012</v>
       </c>
       <c r="C41">
-        <v>-0.002072615204734696</v>
+        <v>0.008234497141695404</v>
       </c>
       <c r="D41">
-        <v>-0.06509647486840295</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05607216259659396</v>
+      </c>
+      <c r="E41">
+        <v>-0.05389167125859375</v>
+      </c>
+      <c r="F41">
+        <v>-0.002681178970290553</v>
+      </c>
+      <c r="G41">
+        <v>-0.02250195518271593</v>
+      </c>
+      <c r="H41">
+        <v>0.04123927110224849</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.02993915840793445</v>
+        <v>-0.02372200619135839</v>
       </c>
       <c r="C43">
-        <v>0.007614433606026395</v>
+        <v>0.01858110231781492</v>
       </c>
       <c r="D43">
-        <v>-0.1010795813831255</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08338941436397052</v>
+      </c>
+      <c r="E43">
+        <v>-0.03234556321473425</v>
+      </c>
+      <c r="F43">
+        <v>-0.005476887414012743</v>
+      </c>
+      <c r="G43">
+        <v>-0.02382321208732749</v>
+      </c>
+      <c r="H43">
+        <v>0.06609360945274972</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01570636192811802</v>
+        <v>-0.01678134866556326</v>
       </c>
       <c r="C44">
-        <v>0.04565933778136093</v>
+        <v>0.04335806844331669</v>
       </c>
       <c r="D44">
-        <v>-0.07554130655569379</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09869629734589282</v>
+      </c>
+      <c r="E44">
+        <v>-0.06631189561879959</v>
+      </c>
+      <c r="F44">
+        <v>-0.01074955513156997</v>
+      </c>
+      <c r="G44">
+        <v>-0.01646001958426251</v>
+      </c>
+      <c r="H44">
+        <v>0.07132378137249293</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02075329062094615</v>
+        <v>-0.01529313174898658</v>
       </c>
       <c r="C46">
-        <v>0.01444101657596202</v>
+        <v>0.03070165157656935</v>
       </c>
       <c r="D46">
-        <v>-0.07150768165988629</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08738501189542282</v>
+      </c>
+      <c r="E46">
+        <v>-0.04069479149112566</v>
+      </c>
+      <c r="F46">
+        <v>0.01401305672840431</v>
+      </c>
+      <c r="G46">
+        <v>-0.002302635454191099</v>
+      </c>
+      <c r="H46">
+        <v>0.1090857330206539</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09741185000161488</v>
+        <v>-0.08182663116524458</v>
       </c>
       <c r="C47">
-        <v>0.06639286483465696</v>
+        <v>0.08996951583639366</v>
       </c>
       <c r="D47">
-        <v>-0.04480135798744356</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03337780788828925</v>
+      </c>
+      <c r="E47">
+        <v>-0.037913576688724</v>
+      </c>
+      <c r="F47">
+        <v>-0.02134199324228535</v>
+      </c>
+      <c r="G47">
+        <v>0.03379677812992958</v>
+      </c>
+      <c r="H47">
+        <v>0.02746835774331328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01559414934316425</v>
+        <v>-0.01671558914588061</v>
       </c>
       <c r="C48">
-        <v>0.014399352000185</v>
+        <v>0.01974682207112986</v>
       </c>
       <c r="D48">
-        <v>-0.06126847759099989</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07332377768025443</v>
+      </c>
+      <c r="E48">
+        <v>-0.05235505158258649</v>
+      </c>
+      <c r="F48">
+        <v>0.001528853477184022</v>
+      </c>
+      <c r="G48">
+        <v>-0.003863433407877842</v>
+      </c>
+      <c r="H48">
+        <v>0.06051258272397966</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.06274710210713091</v>
+        <v>-0.053047736858295</v>
       </c>
       <c r="C50">
-        <v>0.05032094604860939</v>
+        <v>0.06732629874980317</v>
       </c>
       <c r="D50">
-        <v>-0.06416255300736404</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05593066449050454</v>
+      </c>
+      <c r="E50">
+        <v>-0.04380099326564069</v>
+      </c>
+      <c r="F50">
+        <v>-0.03901304543057672</v>
+      </c>
+      <c r="G50">
+        <v>-0.02373345746428695</v>
+      </c>
+      <c r="H50">
+        <v>0.04122447222697219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01086225530048694</v>
+        <v>-0.01095131672456456</v>
       </c>
       <c r="C51">
-        <v>0.01553125215470206</v>
+        <v>0.02099520264493264</v>
       </c>
       <c r="D51">
-        <v>-0.07989913781110788</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.09024491726346212</v>
+      </c>
+      <c r="E51">
+        <v>-0.01390572553349244</v>
+      </c>
+      <c r="F51">
+        <v>-0.003170830590136923</v>
+      </c>
+      <c r="G51">
+        <v>-0.02390640605609702</v>
+      </c>
+      <c r="H51">
+        <v>0.06254976113043201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09149512841952878</v>
+        <v>-0.08680401860733854</v>
       </c>
       <c r="C53">
-        <v>0.08661172687756118</v>
+        <v>0.1016638228071545</v>
       </c>
       <c r="D53">
-        <v>-0.005349982370422942</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01328155890055173</v>
+      </c>
+      <c r="E53">
+        <v>-0.1131145515221796</v>
+      </c>
+      <c r="F53">
+        <v>-0.04099553716289787</v>
+      </c>
+      <c r="G53">
+        <v>0.07905865504369029</v>
+      </c>
+      <c r="H53">
+        <v>0.01627460282071477</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.03018058617762044</v>
+        <v>-0.02652485975453973</v>
       </c>
       <c r="C54">
-        <v>0.02901068373684523</v>
+        <v>0.03633150148558402</v>
       </c>
       <c r="D54">
-        <v>-0.09023737068065343</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08813871712703651</v>
+      </c>
+      <c r="E54">
+        <v>-0.04306811295833413</v>
+      </c>
+      <c r="F54">
+        <v>0.0115455050566365</v>
+      </c>
+      <c r="G54">
+        <v>-0.0378971620453432</v>
+      </c>
+      <c r="H54">
+        <v>0.1084478189452266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09479213181829595</v>
+        <v>-0.08497937377664047</v>
       </c>
       <c r="C55">
-        <v>0.05732902365763339</v>
+        <v>0.08066493189568168</v>
       </c>
       <c r="D55">
-        <v>0.0157141177676444</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008316841437803041</v>
+      </c>
+      <c r="E55">
+        <v>-0.06188711824722286</v>
+      </c>
+      <c r="F55">
+        <v>-0.03875845763142442</v>
+      </c>
+      <c r="G55">
+        <v>0.04101222651378329</v>
+      </c>
+      <c r="H55">
+        <v>0.002171733822853354</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1425799780700188</v>
+        <v>-0.129844129585077</v>
       </c>
       <c r="C56">
-        <v>0.09222685502700891</v>
+        <v>0.1250806800403395</v>
       </c>
       <c r="D56">
-        <v>0.007008545675104533</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01148216416722748</v>
+      </c>
+      <c r="E56">
+        <v>-0.0657293628404314</v>
+      </c>
+      <c r="F56">
+        <v>-0.02950259918272748</v>
+      </c>
+      <c r="G56">
+        <v>0.04156583488164473</v>
+      </c>
+      <c r="H56">
+        <v>0.006303450189935045</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.01707832424395994</v>
+        <v>-0.02603418287438525</v>
       </c>
       <c r="C58">
-        <v>-0.005096749845771561</v>
+        <v>0.02788664428697804</v>
       </c>
       <c r="D58">
-        <v>-0.3042049192089197</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3552496786499717</v>
+      </c>
+      <c r="E58">
+        <v>-0.1744108843184937</v>
+      </c>
+      <c r="F58">
+        <v>-0.129108878147827</v>
+      </c>
+      <c r="G58">
+        <v>-0.1862709480544907</v>
+      </c>
+      <c r="H58">
+        <v>-0.4444430901033306</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1362630184544618</v>
+        <v>-0.1786623641674008</v>
       </c>
       <c r="C59">
-        <v>-0.1955182486044475</v>
+        <v>-0.1698739416503722</v>
       </c>
       <c r="D59">
-        <v>-0.02676225594338333</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.05130681684256316</v>
+      </c>
+      <c r="E59">
+        <v>-0.01581088955612427</v>
+      </c>
+      <c r="F59">
+        <v>0.04133261037849134</v>
+      </c>
+      <c r="G59">
+        <v>0.001728966154761023</v>
+      </c>
+      <c r="H59">
+        <v>-0.024604817055501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2486948840160577</v>
+        <v>-0.2287644551554852</v>
       </c>
       <c r="C60">
-        <v>0.05358806300472211</v>
+        <v>0.1017502117285747</v>
       </c>
       <c r="D60">
-        <v>-0.208475464255207</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1189814885012681</v>
+      </c>
+      <c r="E60">
+        <v>0.3585750997180459</v>
+      </c>
+      <c r="F60">
+        <v>-0.03546559400064908</v>
+      </c>
+      <c r="G60">
+        <v>0.0511076123457767</v>
+      </c>
+      <c r="H60">
+        <v>-0.1126219333322675</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04741839645957777</v>
+        <v>-0.04086906525970156</v>
       </c>
       <c r="C61">
-        <v>0.05006413796918168</v>
+        <v>0.06272341017715911</v>
       </c>
       <c r="D61">
-        <v>-0.09817493491291206</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09163238811580639</v>
+      </c>
+      <c r="E61">
+        <v>-0.006294126396707795</v>
+      </c>
+      <c r="F61">
+        <v>0.01864090599036488</v>
+      </c>
+      <c r="G61">
+        <v>-0.003651539416578834</v>
+      </c>
+      <c r="H61">
+        <v>0.07881779625840162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01837990776178641</v>
+        <v>-0.01541691393285119</v>
       </c>
       <c r="C63">
-        <v>0.02224232837290892</v>
+        <v>0.03312659977598928</v>
       </c>
       <c r="D63">
-        <v>-0.05922323710930562</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06787521254616338</v>
+      </c>
+      <c r="E63">
+        <v>-0.03086714959540427</v>
+      </c>
+      <c r="F63">
+        <v>-0.01700946269584173</v>
+      </c>
+      <c r="G63">
+        <v>-0.009615482867458487</v>
+      </c>
+      <c r="H63">
+        <v>0.04763665879279819</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.06114767405784596</v>
+        <v>-0.0535590179648987</v>
       </c>
       <c r="C64">
-        <v>0.06494087839356108</v>
+        <v>0.08258573876435578</v>
       </c>
       <c r="D64">
-        <v>-0.05995307379623082</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05547239832985604</v>
+      </c>
+      <c r="E64">
+        <v>-0.02818063230989121</v>
+      </c>
+      <c r="F64">
+        <v>0.01451526743222331</v>
+      </c>
+      <c r="G64">
+        <v>0.04517598749152579</v>
+      </c>
+      <c r="H64">
+        <v>0.06525126036662117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.04786368346874181</v>
+        <v>-0.04540373345229111</v>
       </c>
       <c r="C65">
-        <v>0.007685028227086674</v>
+        <v>0.0266088707620427</v>
       </c>
       <c r="D65">
-        <v>-0.1132445281304069</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1170703095075259</v>
+      </c>
+      <c r="E65">
+        <v>-0.004351890181501982</v>
+      </c>
+      <c r="F65">
+        <v>-0.01893930063301861</v>
+      </c>
+      <c r="G65">
+        <v>-0.02694458300095437</v>
+      </c>
+      <c r="H65">
+        <v>-0.03135832810213211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04482755796073556</v>
+        <v>-0.03996505216702139</v>
       </c>
       <c r="C66">
-        <v>0.05590059446209731</v>
+        <v>0.07662202141672594</v>
       </c>
       <c r="D66">
-        <v>-0.111664474861326</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1313543599475838</v>
+      </c>
+      <c r="E66">
+        <v>-0.01499208041144526</v>
+      </c>
+      <c r="F66">
+        <v>0.01278253222076653</v>
+      </c>
+      <c r="G66">
+        <v>-0.02162519271142043</v>
+      </c>
+      <c r="H66">
+        <v>0.04956998993855322</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04112616723334637</v>
+        <v>-0.03806188168162949</v>
       </c>
       <c r="C67">
-        <v>0.01720645927161727</v>
+        <v>0.02635450700988223</v>
       </c>
       <c r="D67">
-        <v>-0.02372768500058897</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02056632435276509</v>
+      </c>
+      <c r="E67">
+        <v>-0.01490711299221701</v>
+      </c>
+      <c r="F67">
+        <v>0.007722347533327742</v>
+      </c>
+      <c r="G67">
+        <v>-0.04005682124046429</v>
+      </c>
+      <c r="H67">
+        <v>0.03339967236319093</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.153600961794375</v>
+        <v>-0.1943843550006973</v>
       </c>
       <c r="C68">
-        <v>-0.2370770859274462</v>
+        <v>-0.1983476630841408</v>
       </c>
       <c r="D68">
-        <v>0.02275739715240119</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01027877644806912</v>
+      </c>
+      <c r="E68">
+        <v>-0.05008393172908534</v>
+      </c>
+      <c r="F68">
+        <v>-0.03022193637002542</v>
+      </c>
+      <c r="G68">
+        <v>-0.009606452127225273</v>
+      </c>
+      <c r="H68">
+        <v>-0.00580942630317578</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08845056660347922</v>
+        <v>-0.07425752241436359</v>
       </c>
       <c r="C69">
-        <v>0.08339510677500511</v>
+        <v>0.09693979826342985</v>
       </c>
       <c r="D69">
-        <v>-0.066241951363132</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04683065671600938</v>
+      </c>
+      <c r="E69">
+        <v>-0.02585647795627517</v>
+      </c>
+      <c r="F69">
+        <v>-0.007169097676090775</v>
+      </c>
+      <c r="G69">
+        <v>0.02311403451200181</v>
+      </c>
+      <c r="H69">
+        <v>0.04085734001901398</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1352580097756567</v>
+        <v>-0.1826458621570168</v>
       </c>
       <c r="C71">
-        <v>-0.2427215741295109</v>
+        <v>-0.2104212791678857</v>
       </c>
       <c r="D71">
-        <v>-0.01464565689441021</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.0380945905343841</v>
+      </c>
+      <c r="E71">
+        <v>-0.05538278942661954</v>
+      </c>
+      <c r="F71">
+        <v>-0.03315034262006331</v>
+      </c>
+      <c r="G71">
+        <v>0.01026782580252214</v>
+      </c>
+      <c r="H71">
+        <v>0.02498419537521195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09728314150885922</v>
+        <v>-0.09809786138003358</v>
       </c>
       <c r="C72">
-        <v>0.03881447540317556</v>
+        <v>0.07066528427966463</v>
       </c>
       <c r="D72">
-        <v>-0.08932541589954782</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09415193520951314</v>
+      </c>
+      <c r="E72">
+        <v>0.03396818153041303</v>
+      </c>
+      <c r="F72">
+        <v>-0.03867689232291837</v>
+      </c>
+      <c r="G72">
+        <v>0.0290854693334028</v>
+      </c>
+      <c r="H72">
+        <v>0.03680759507605605</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2657353347339519</v>
+        <v>-0.240186467967709</v>
       </c>
       <c r="C73">
-        <v>0.004132936222960746</v>
+        <v>0.08648993447222854</v>
       </c>
       <c r="D73">
-        <v>-0.3272574816452</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1698435681344667</v>
+      </c>
+      <c r="E73">
+        <v>0.671700480680717</v>
+      </c>
+      <c r="F73">
+        <v>-0.02682211510978529</v>
+      </c>
+      <c r="G73">
+        <v>0.05296679507625228</v>
+      </c>
+      <c r="H73">
+        <v>-0.1424704187439054</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1114359468767934</v>
+        <v>-0.09860774595446686</v>
       </c>
       <c r="C74">
-        <v>0.06823198954938367</v>
+        <v>0.09134952967687605</v>
       </c>
       <c r="D74">
-        <v>-0.003510727167123371</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.005944485570741983</v>
+      </c>
+      <c r="E74">
+        <v>-0.08052322657744843</v>
+      </c>
+      <c r="F74">
+        <v>-0.06218171667329555</v>
+      </c>
+      <c r="G74">
+        <v>0.05828120685037662</v>
+      </c>
+      <c r="H74">
+        <v>-0.02279831090109309</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2513847823201842</v>
+        <v>-0.2275837682904402</v>
       </c>
       <c r="C75">
-        <v>0.1212581326450048</v>
+        <v>0.1647807811314647</v>
       </c>
       <c r="D75">
-        <v>0.07403208415064913</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09903404369922304</v>
+      </c>
+      <c r="E75">
+        <v>-0.1066922279182036</v>
+      </c>
+      <c r="F75">
+        <v>0.004288138546271978</v>
+      </c>
+      <c r="G75">
+        <v>0.06101811171521496</v>
+      </c>
+      <c r="H75">
+        <v>-0.09109430425835445</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1436838650267592</v>
+        <v>-0.1274004496804686</v>
       </c>
       <c r="C76">
-        <v>0.08671528551448045</v>
+        <v>0.1137646858681688</v>
       </c>
       <c r="D76">
-        <v>0.01088248189301648</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01100772335547155</v>
+      </c>
+      <c r="E76">
+        <v>-0.1204019001700084</v>
+      </c>
+      <c r="F76">
+        <v>-0.01586035953961585</v>
+      </c>
+      <c r="G76">
+        <v>0.03910485602103579</v>
+      </c>
+      <c r="H76">
+        <v>0.01527282655084356</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.06486220020820653</v>
+        <v>-0.06071289865358181</v>
       </c>
       <c r="C77">
-        <v>0.06345160273790575</v>
+        <v>0.07317432084251783</v>
       </c>
       <c r="D77">
-        <v>-0.03788229416953783</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1307846009687806</v>
+      </c>
+      <c r="E77">
+        <v>-0.2158200244963153</v>
+      </c>
+      <c r="F77">
+        <v>0.2844424230247332</v>
+      </c>
+      <c r="G77">
+        <v>-0.2110700377611962</v>
+      </c>
+      <c r="H77">
+        <v>-0.3708281511245741</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04126795623118203</v>
+        <v>-0.04304785366666276</v>
       </c>
       <c r="C78">
-        <v>0.0540713816295593</v>
+        <v>0.06665260663019133</v>
       </c>
       <c r="D78">
-        <v>-0.1222047667968634</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1335140098001972</v>
+      </c>
+      <c r="E78">
+        <v>-0.01388445470400796</v>
+      </c>
+      <c r="F78">
+        <v>-0.01108875692739648</v>
+      </c>
+      <c r="G78">
+        <v>0.01082298355349845</v>
+      </c>
+      <c r="H78">
+        <v>0.02552035290223387</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.02582079772369146</v>
+        <v>-0.04599699242080599</v>
       </c>
       <c r="C79">
-        <v>0.08220465262962522</v>
+        <v>0.09233549210811956</v>
       </c>
       <c r="D79">
-        <v>0.06035158449183922</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0252074017030658</v>
+      </c>
+      <c r="E79">
+        <v>-0.2141954679030354</v>
+      </c>
+      <c r="F79">
+        <v>-0.1330796148854061</v>
+      </c>
+      <c r="G79">
+        <v>0.7653053932604561</v>
+      </c>
+      <c r="H79">
+        <v>-0.2767329587859911</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.03113680093966164</v>
+        <v>-0.02358635708298812</v>
       </c>
       <c r="C80">
-        <v>0.03082930698771424</v>
+        <v>0.04701215888324951</v>
       </c>
       <c r="D80">
-        <v>-0.02287643075988601</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02853148551188575</v>
+      </c>
+      <c r="E80">
+        <v>-0.007350769829764604</v>
+      </c>
+      <c r="F80">
+        <v>0.01688807865589124</v>
+      </c>
+      <c r="G80">
+        <v>-0.04373476396547963</v>
+      </c>
+      <c r="H80">
+        <v>0.008667733216628224</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1461514064117113</v>
+        <v>-0.1269869667796982</v>
       </c>
       <c r="C81">
-        <v>0.09448412786401625</v>
+        <v>0.1192234421888995</v>
       </c>
       <c r="D81">
-        <v>0.06130176859190951</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07342771308155149</v>
+      </c>
+      <c r="E81">
+        <v>-0.1108070883952824</v>
+      </c>
+      <c r="F81">
+        <v>-0.02459734522900093</v>
+      </c>
+      <c r="G81">
+        <v>0.04517642561855001</v>
+      </c>
+      <c r="H81">
+        <v>-0.001879162616004994</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.3179790026319918</v>
+        <v>-0.2554859594568081</v>
       </c>
       <c r="C82">
-        <v>0.2514299821531999</v>
+        <v>0.2600147066254834</v>
       </c>
       <c r="D82">
-        <v>0.2326984966337566</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2423292880708662</v>
+      </c>
+      <c r="E82">
+        <v>0.01608951378752359</v>
+      </c>
+      <c r="F82">
+        <v>-0.04338927534010586</v>
+      </c>
+      <c r="G82">
+        <v>0.01103988111206137</v>
+      </c>
+      <c r="H82">
+        <v>0.4669102786303983</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03033256089888276</v>
+        <v>-0.02640319974571865</v>
       </c>
       <c r="C83">
-        <v>0.0518129259979947</v>
+        <v>0.04854886513674941</v>
       </c>
       <c r="D83">
-        <v>-0.04684459009649738</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05168347153294856</v>
+      </c>
+      <c r="E83">
+        <v>-0.01840509879705484</v>
+      </c>
+      <c r="F83">
+        <v>0.02792563896811551</v>
+      </c>
+      <c r="G83">
+        <v>-0.0204197571777663</v>
+      </c>
+      <c r="H83">
+        <v>0.01851986738913174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0005017831805513857</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004741702696276811</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01819089088558825</v>
+      </c>
+      <c r="E84">
+        <v>-0.0186510164353071</v>
+      </c>
+      <c r="F84">
+        <v>-0.008304049254737945</v>
+      </c>
+      <c r="G84">
+        <v>-0.007635001087837947</v>
+      </c>
+      <c r="H84">
+        <v>-8.318004721178925e-05</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1799527943912741</v>
+        <v>-0.1566030441000969</v>
       </c>
       <c r="C85">
-        <v>0.09203411167543669</v>
+        <v>0.1329288108483845</v>
       </c>
       <c r="D85">
-        <v>0.03582838751826975</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.06133296854340803</v>
+      </c>
+      <c r="E85">
+        <v>-0.05218224217817864</v>
+      </c>
+      <c r="F85">
+        <v>-0.03361027322336183</v>
+      </c>
+      <c r="G85">
+        <v>0.1036749183484479</v>
+      </c>
+      <c r="H85">
+        <v>-0.06796753614718494</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01760754931090839</v>
+        <v>-0.02013484875101481</v>
       </c>
       <c r="C86">
-        <v>0.03373970622422497</v>
+        <v>0.02511051462661991</v>
       </c>
       <c r="D86">
-        <v>-0.1283447253761934</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1199732598643082</v>
+      </c>
+      <c r="E86">
+        <v>-0.003709425078390794</v>
+      </c>
+      <c r="F86">
+        <v>0.01878136025810944</v>
+      </c>
+      <c r="G86">
+        <v>-0.009944643258179245</v>
+      </c>
+      <c r="H86">
+        <v>0.06846150536574948</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03100445722201361</v>
+        <v>-0.03616973118954195</v>
       </c>
       <c r="C87">
-        <v>0.006814857614351997</v>
+        <v>0.02581749045791422</v>
       </c>
       <c r="D87">
-        <v>-0.09698504026372122</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1374412679426773</v>
+      </c>
+      <c r="E87">
+        <v>-0.07681858602371036</v>
+      </c>
+      <c r="F87">
+        <v>0.008601221962783534</v>
+      </c>
+      <c r="G87">
+        <v>-0.02319723475521688</v>
+      </c>
+      <c r="H87">
+        <v>0.02399671080052897</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.07925839843529192</v>
+        <v>-0.07072885110476695</v>
       </c>
       <c r="C88">
-        <v>0.03406792582268268</v>
+        <v>0.05395309910626173</v>
       </c>
       <c r="D88">
-        <v>-0.04610264977944145</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02751117882370743</v>
+      </c>
+      <c r="E88">
+        <v>-0.002551022818489288</v>
+      </c>
+      <c r="F88">
+        <v>-0.01960549291059587</v>
+      </c>
+      <c r="G88">
+        <v>0.003311117274652033</v>
+      </c>
+      <c r="H88">
+        <v>0.0363646349371472</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2014008240435079</v>
+        <v>-0.2807053456486056</v>
       </c>
       <c r="C89">
-        <v>-0.3961857861435807</v>
+        <v>-0.3552034633001006</v>
       </c>
       <c r="D89">
-        <v>0.03264306312179611</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.003740119048250621</v>
+      </c>
+      <c r="E89">
+        <v>-0.04599477430610157</v>
+      </c>
+      <c r="F89">
+        <v>0.04411999336934221</v>
+      </c>
+      <c r="G89">
+        <v>0.03630797417350935</v>
+      </c>
+      <c r="H89">
+        <v>0.0853699568321572</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1872570684024996</v>
+        <v>-0.2382239015381742</v>
       </c>
       <c r="C90">
-        <v>-0.3031925774009764</v>
+        <v>-0.2522931080671761</v>
       </c>
       <c r="D90">
-        <v>0.01504879587118212</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01891040799921808</v>
+      </c>
+      <c r="E90">
+        <v>-0.05168345297538409</v>
+      </c>
+      <c r="F90">
+        <v>-0.005452088218169743</v>
+      </c>
+      <c r="G90">
+        <v>-0.05739653701074368</v>
+      </c>
+      <c r="H90">
+        <v>0.03229450945949852</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1895593632832724</v>
+        <v>-0.1591862133893356</v>
       </c>
       <c r="C91">
-        <v>0.1387364308843402</v>
+        <v>0.1574726484478794</v>
       </c>
       <c r="D91">
-        <v>0.08163091343571977</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08575986068141619</v>
+      </c>
+      <c r="E91">
+        <v>-0.1084213719733474</v>
+      </c>
+      <c r="F91">
+        <v>-0.02101845314953377</v>
+      </c>
+      <c r="G91">
+        <v>0.09830780517850429</v>
+      </c>
+      <c r="H91">
+        <v>-0.07031326129497112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1647457714807173</v>
+        <v>-0.2230269605917615</v>
       </c>
       <c r="C92">
-        <v>-0.3001458126434255</v>
+        <v>-0.2719723301874351</v>
       </c>
       <c r="D92">
-        <v>-0.008097988798586633</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.034103487214412</v>
+      </c>
+      <c r="E92">
+        <v>-0.09115558662052176</v>
+      </c>
+      <c r="F92">
+        <v>0.01108739384460583</v>
+      </c>
+      <c r="G92">
+        <v>-0.02491323256629755</v>
+      </c>
+      <c r="H92">
+        <v>0.03242056225024162</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2142963806888795</v>
+        <v>-0.2622286054496759</v>
       </c>
       <c r="C93">
-        <v>-0.3234823757129301</v>
+        <v>-0.2656693201811933</v>
       </c>
       <c r="D93">
-        <v>0.0004923152699415545</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-9.959230197209534e-05</v>
+      </c>
+      <c r="E93">
+        <v>-0.01224239295398056</v>
+      </c>
+      <c r="F93">
+        <v>-0.01990526571894002</v>
+      </c>
+      <c r="G93">
+        <v>0.007124048857714472</v>
+      </c>
+      <c r="H93">
+        <v>-0.002811443054305465</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.4013910351446761</v>
+        <v>-0.3388976858897935</v>
       </c>
       <c r="C94">
-        <v>0.2043505043762692</v>
+        <v>0.2617437475508422</v>
       </c>
       <c r="D94">
-        <v>0.4517504703167365</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4288700557672053</v>
+      </c>
+      <c r="E94">
+        <v>-0.07654340973755669</v>
+      </c>
+      <c r="F94">
+        <v>0.01933060705344309</v>
+      </c>
+      <c r="G94">
+        <v>-0.4393294232711578</v>
+      </c>
+      <c r="H94">
+        <v>-0.2425190263476517</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07728424062910329</v>
+        <v>-0.0677030754579411</v>
       </c>
       <c r="C95">
-        <v>0.05973030763482581</v>
+        <v>0.06689406320452491</v>
       </c>
       <c r="D95">
-        <v>-0.1092476478173022</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.08206557126543373</v>
+      </c>
+      <c r="E95">
+        <v>0.01623916616913504</v>
+      </c>
+      <c r="F95">
+        <v>0.9062589088855023</v>
+      </c>
+      <c r="G95">
+        <v>0.1614541865942665</v>
+      </c>
+      <c r="H95">
+        <v>0.02730741333771844</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1713890242933891</v>
+        <v>-0.1617803767338477</v>
       </c>
       <c r="C98">
-        <v>0.01420054558325538</v>
+        <v>0.0646055711258192</v>
       </c>
       <c r="D98">
-        <v>-0.1807968510202679</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1254428259445411</v>
+      </c>
+      <c r="E98">
+        <v>0.3123303701414635</v>
+      </c>
+      <c r="F98">
+        <v>-0.05447079493792707</v>
+      </c>
+      <c r="G98">
+        <v>0.05859664734248383</v>
+      </c>
+      <c r="H98">
+        <v>-0.04165836535493803</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.005649612370121143</v>
+        <v>-0.006078989702068726</v>
       </c>
       <c r="C101">
-        <v>0.01645249116336037</v>
+        <v>0.0224124379297496</v>
       </c>
       <c r="D101">
-        <v>-0.0684115117280131</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.08805053609511895</v>
+      </c>
+      <c r="E101">
+        <v>-0.03620044366250075</v>
+      </c>
+      <c r="F101">
+        <v>-0.0115746421116753</v>
+      </c>
+      <c r="G101">
+        <v>-0.008177084413542764</v>
+      </c>
+      <c r="H101">
+        <v>0.1026910437236756</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1313423604948751</v>
+        <v>-0.1065823294913387</v>
       </c>
       <c r="C102">
-        <v>0.110192372590924</v>
+        <v>0.1191788049266119</v>
       </c>
       <c r="D102">
-        <v>0.04666578333881265</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06492966501493448</v>
+      </c>
+      <c r="E102">
+        <v>-0.02734495444351961</v>
+      </c>
+      <c r="F102">
+        <v>0.02435507679229379</v>
+      </c>
+      <c r="G102">
+        <v>0.02859579365000276</v>
+      </c>
+      <c r="H102">
+        <v>0.04683325213259042</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
